--- a/premise/data/additional_inventories/lci-wave_energy.xlsx
+++ b/premise/data/additional_inventories/lci-wave_energy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Library/CloudStorage/Dropbox/EPR lci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B6158-07ED-B74A-9DCF-277DAE235F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A777F1-C1DC-9243-976F-8106261C5F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{9390246E-0CB1-2943-9619-6907BF9501C5}"/>
+    <workbookView xWindow="34660" yWindow="660" windowWidth="26440" windowHeight="15440" xr2:uid="{9390246E-0CB1-2943-9619-6907BF9501C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="189">
   <si>
     <t>Activity</t>
   </si>
@@ -594,6 +594,15 @@
   </si>
   <si>
     <t>transport, freight, sea, bulk carrier for dry goods</t>
+  </si>
+  <si>
+    <t>Energy, potential (in hydropower reservoir), converted</t>
+  </si>
+  <si>
+    <t>Wave energy input unknown, so it's set at 3.6. No fitting biosphere flow.</t>
+  </si>
+  <si>
+    <t>natural resource::in water</t>
   </si>
 </sst>
 </file>
@@ -662,7 +671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -950,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B7622B-A0DC-784C-986C-6879FAEDCBD5}">
-  <dimension ref="A1:Z314"/>
+  <dimension ref="A1:Z315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="E314" sqref="E314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -4894,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>3</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -4918,7 +4927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -4934,7 +4943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -4942,12 +4951,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -4969,45 +4978,68 @@
       <c r="G312" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>186</v>
+      </c>
+      <c r="B313">
+        <v>3.6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>34</v>
+      </c>
+      <c r="E313" t="s">
+        <v>188</v>
+      </c>
+      <c r="F313" t="s">
+        <v>137</v>
+      </c>
+      <c r="H313" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>171</v>
       </c>
-      <c r="B313">
-        <v>1</v>
-      </c>
-      <c r="C313" t="s">
-        <v>21</v>
-      </c>
-      <c r="D313" t="s">
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" t="s">
         <v>8</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F314" t="s">
         <v>25</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G314" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>145</v>
       </c>
-      <c r="B314">
+      <c r="B315">
         <f>1/(2.97*1000000*20)</f>
         <v>1.6835016835016835E-8</v>
       </c>
-      <c r="C314" t="s">
-        <v>21</v>
-      </c>
-      <c r="D314" t="s">
-        <v>7</v>
-      </c>
-      <c r="F314" t="s">
-        <v>27</v>
-      </c>
-      <c r="G314" t="s">
+      <c r="C315" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="F315" t="s">
+        <v>27</v>
+      </c>
+      <c r="G315" t="s">
         <v>146</v>
       </c>
     </row>
